--- a/Research/2018/March-Apr 2018/Products/Products/1.PR_WriteAndEraseBoard.xlsx
+++ b/Research/2018/March-Apr 2018/Products/Products/1.PR_WriteAndEraseBoard.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <f>21-5</f>
@@ -824,7 +824,7 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D23" s="10">
         <f>SUM(F2:F21)</f>
-        <v>69.5</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1216,7 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B18">
         <f>B15*B16</f>
-        <v>1000</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B22">
         <f>B18*18/100</f>
-        <v>180</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B24">
         <f>B22+B20+B18</f>
-        <v>1405</v>
+        <v>921.2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B26">
         <f>B24/B16</f>
-        <v>2.81</v>
+        <v>1.8424</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B28">
         <f>B26*65</f>
-        <v>182.65</v>
+        <v>119.756</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B34">
         <f>B32+B30+B28</f>
-        <v>341.45000000000005</v>
+        <v>278.55600000000004</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1314,14 +1314,18 @@
       <c r="B36">
         <v>419</v>
       </c>
+      <c r="D36">
+        <f>B36-B34</f>
+        <v>140.44399999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <f>(B36-B34)/B36*100</f>
-        <v>18.50835322195703</v>
+        <f>(B36-B28)/B28*100</f>
+        <v>249.87808544039552</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
